--- a/ItshfSim/doc/model.xlsx
+++ b/ItshfSim/doc/model.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\qt514\ItshfSim\ItshfSim\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E502B0-E9DF-4E3F-BA0C-AD20F60FFFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A437B90-5FCD-4612-848D-C68ABF4717A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="2460" windowWidth="16425" windowHeight="11385" xr2:uid="{CF29816E-8163-4EDC-818E-E7117415C10B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CF29816E-8163-4EDC-818E-E7117415C10B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="snr" sheetId="1" r:id="rId1"/>
+    <sheet name="beta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>SNR</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -93,6 +94,95 @@
     <t>基本思路：
 1、均值参考SNR50的不通率40%，即SNR值大于-7dB。
 2、方差考虑信号波动范围，SNR100有5%不通。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>b7</t>
+  </si>
+  <si>
+    <t>b8</t>
+  </si>
+  <si>
+    <t>b9</t>
+  </si>
+  <si>
+    <t>b10</t>
+  </si>
+  <si>
+    <t>b11</t>
+  </si>
+  <si>
+    <t>b12</t>
+  </si>
+  <si>
+    <t>b13</t>
+  </si>
+  <si>
+    <t>b14</t>
+  </si>
+  <si>
+    <t>b15</t>
+  </si>
+  <si>
+    <t>b16</t>
+  </si>
+  <si>
+    <t>b17</t>
+  </si>
+  <si>
+    <t>b18</t>
+  </si>
+  <si>
+    <t>b19</t>
+  </si>
+  <si>
+    <t>b20</t>
+  </si>
+  <si>
+    <t>b(a11,b2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +314,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -248,6 +341,2472 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>beta!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b(a11,b2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>beta!$Y$2:$Y$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.34375E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.90625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6875E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.46875E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.03125E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8125E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.59375E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1015625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.109375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1171875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1328125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.140625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1484375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1640625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.171875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1796875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1953125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.203125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2109375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2265625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.234375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2421875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2578125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.265625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2734375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.2890625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.296875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.3046875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.3203125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.328125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.3359375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.3515625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.359375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.3671875</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.3828125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.3984375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.4140625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.421875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4296875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.4453125</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.453125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.4609375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.4765625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.484375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.4921875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.5078125</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.515625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.5234375</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.5390625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.546875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.5546875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.5703125</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.578125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.5859375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.6015625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.609375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.6171875</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.6328125</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.640625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.6484375</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.6640625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.6796875</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.6953125</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.7109375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.7265625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.734375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.7421875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.7578125</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.765625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.7734375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.7890625</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.796875</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.8046875</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.8203125</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.828125</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.8359375</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.8515625</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.859375</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.8671875</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.8828125</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.890625</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.8984375</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.9140625</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.921875</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.9296875</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.9453125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.953125</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.9609375</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.9765625</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.984375</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.9921875</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>beta!$Z$2:$Z$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1.1093484631071141E-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1270281582986853E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4474328147650104E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1357581541915358E-13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0492269082352286E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4437190934636857E-12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9855890932770082E-11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.125499693444004E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6244016618566337E-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0307332176900742E-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6508001006416511E-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2738584327703721E-9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3848273383290998E-8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8803779206015324E-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6918742817847056E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0756775736808795E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9546835479976599E-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4306941444666335E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8374983732491195E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.6602413568458382E-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5589816024358514E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4592174882397247E-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7995479034715526E-6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.759834721175127E-6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.5802822939079057E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2577603985547642E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.816449299733459E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5872868339438286E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6381402634081033E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0547873267757378E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.9446911737545825E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.4413757324218614E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2709464990226445E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6950452215861526E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2409267309752805E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.938171217835574E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8222835210779504E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9356316520976105E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3284935526857031E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.0602191587786246E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0200514672897103E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2830855685692598E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6046035422245858E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9955853912115846E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.4686953283720057E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0384803653209533E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.7215843204987898E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.536977503448723E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.5062022132457318E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.6536340522234299E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.0067589005224683E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.5964652212868623E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1457351169291724E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3628045756099244E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6151543081166592E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9075548369301049E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2452834259065281E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.6341605462736638E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.0805869564742697E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.5915811340617151E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1748167560901925E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.8386598792477267E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.5922054221918135E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.4453124999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4086381041723395E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.493668561047335E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.7127481366421922E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.1107910408662266</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.12606867376165176</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.14311088215707932</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.16207745474808938</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.18313748947343808</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.2064693334689055</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.23226042811156783</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.26070704588511917</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.29201390467877048</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.32639364395193826</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.36406614595225695</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.40525768386319866</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.45019987737759931</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.49912843474239238</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.55228165879557034</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.60989869291654253</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.67221748113321511</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.73947241487101689</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.81189163698817657</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.88969397181549326</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.973085447905078</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0622553780885324</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1573719592483334</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2585773519140222</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3659821974047746</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4796595277490938</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5996380210183463</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7258945520106539</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.8583459854125977</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9968401556455804</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1411459745684671</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.2909426050556396</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4458076351967919</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.6052041844688172</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.7684668697079298</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.9347865550588228</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.1031938062940299</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.2725409659777074</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.4414827618907209</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.6084553569349138</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.7716537443907119</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.9290073879104916</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.0781540009871584</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.2164113558398304</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.3407470067031682</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.4477458073902598</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.5335750977177369</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.5939474279325037</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.6240806846586819</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.6186554760875582</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.5717696281589175</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.4768896373257441</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.3267989191519973</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.1135426854616455</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.8283692760325612</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.461667763907486</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.0029016462725302</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.4405384255275053</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.7619748776382822</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.9534577971152427</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07C6-44B2-B6AF-0C7D425AEAE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>beta!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>beta!$Y$2:$Y$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.34375E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.90625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6875E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.46875E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.03125E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8125E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.59375E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1015625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.109375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1171875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1328125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.140625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1484375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1640625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.171875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1796875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1953125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.203125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2109375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2265625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.234375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2421875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2578125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.265625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2734375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.2890625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.296875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.3046875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.3203125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.328125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.3359375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.3515625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.359375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.3671875</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.3828125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.3984375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.4140625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.421875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4296875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.4453125</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.453125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.4609375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.4765625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.484375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.4921875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.5078125</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.515625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.5234375</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.5390625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.546875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.5546875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.5703125</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.578125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.5859375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.6015625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.609375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.6171875</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.6328125</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.640625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.6484375</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.6640625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.671875</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.6796875</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.6953125</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.7109375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.7265625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.734375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.7421875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.7578125</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.765625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.7734375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.7890625</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.796875</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.8046875</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.8203125</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.828125</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.8359375</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.8515625</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.859375</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.8671875</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.8828125</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.890625</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.8984375</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.9140625</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.921875</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.9296875</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.9453125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.953125</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.9609375</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.9765625</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.984375</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.9921875</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>beta!$AA$2:$AA$129</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>7.8740444064013803E-23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5989216002938497E-19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3711929653564951E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2185472366687263E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7142602138256493E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7354881535164737E-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.477693102974127E-13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3620297054050398E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3032344681463222E-12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.27276071590555E-12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0559425139538802E-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3044452422083593E-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.267476681170056E-10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8369365476790695E-10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0018309448918198E-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2089217492618E-9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3322441045648598E-9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.33061049250825E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.771668414660109E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3526462235255199E-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2900860062910205E-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7811950033633493E-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.1021045482657113E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6437032046266993E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4950608891638897E-7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2770631726429207E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4116850356083587E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0344712246287615E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.324687271198301E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.05168806357926E-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4914855549137295E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0908431990063299E-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8993393753426906E-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9795065185600801E-6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4095990416743992E-6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.2868222251966987E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.7310759684331015E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2889270257789297E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.69402718683306E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2100544096046208E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.86305431284014E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.6841935900912997E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7105704850557996E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.9861204747178008E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.5626235637501994E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.5008193739800023E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1871635873851897E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4757537119639604E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8253994756607498E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2471087237472208E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.7535229739478998E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.3591036581391001E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0803316538013984E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.9359199802007005E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.9470393429117982E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.1375559901688031E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.5342810932942988E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0167230578801301E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2069894019226396E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4279510830881E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6837351627015801E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9789002131837003E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3184646571904003E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.7079346924218997E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1533313812311982E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.6612164200640028E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.2387160341355E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8935423674139958E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.6340116567601059E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.4690583918338984E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.408244569047602E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.4617630483704992E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.6404339162491914E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0955692646389403E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2419568732938896E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4044653348069314E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5844054448631989E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.783133762521201E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.002045085259499E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.2425631164537996E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.5061291139791997E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.7941882952393998E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.1081737610308025E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.4494876885908965E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.8194795333795051E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.2194209701402974E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.6504772972569997E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.1136750251578988E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.6098653705856982E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.1396833851667054E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.7035024604850002E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.3013839747100961E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.933021880172697E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.5976820801010989E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.2941365097806039E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.10020591927279299</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.10774613537427014</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.11553043727136991</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.12351916389577999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.13166367570455995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.13990543496190999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.14817507459234003</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.65187267867248022</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.64880016236771976</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.64732804598060012</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.64757587804198957</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.64965403378319042</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.65366092058213976</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.65967988542060052</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.66777577663676002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.67799120756766929</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.69034239566263</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.70481463415419121</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.72135733155974968</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.73987859596914873</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.76023933230450069</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.78224681870950086</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.80564772611749902</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.83012054284839998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.85526736335379994</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.88060500138180053</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.9055553736935007</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.92943511981239979</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.95144439571580008</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.97065479411719835</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.98599633422380251</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.99624346204929992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-07C6-44B2-B6AF-0C7D425AEAE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="764111480"/>
+        <c:axId val="764104264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="764111480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764104264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="764104264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764111480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D4BCE1-430F-4D15-B76A-EC5100017DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,8 +3108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78851A5-F45D-4E7E-A098-4969DEC3D558}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1984,4 +4544,3991 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AA0B4D-AB25-4F6B-9004-5C6923332E03}">
+  <dimension ref="A1:AB129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.625" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>70</v>
+      </c>
+      <c r="J2">
+        <v>80</v>
+      </c>
+      <c r="K2">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>110</v>
+      </c>
+      <c r="N2">
+        <v>120</v>
+      </c>
+      <c r="O2">
+        <v>130</v>
+      </c>
+      <c r="P2">
+        <v>140</v>
+      </c>
+      <c r="Q2">
+        <v>150</v>
+      </c>
+      <c r="R2">
+        <v>160</v>
+      </c>
+      <c r="S2">
+        <v>170</v>
+      </c>
+      <c r="T2">
+        <v>180</v>
+      </c>
+      <c r="U2">
+        <v>190</v>
+      </c>
+      <c r="V2">
+        <v>200</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <f>X2/COUNT($X$2:$X$129)</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="Z2">
+        <f>_xlfn.BETA.DIST(Y2,10+1,1+1,0)</f>
+        <v>1.1093484631071141E-19</v>
+      </c>
+      <c r="AA2" s="10">
+        <f>AB3-AB2</f>
+        <v>7.8740444064013803E-23</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>70</v>
+      </c>
+      <c r="J3">
+        <v>80</v>
+      </c>
+      <c r="K3">
+        <v>90</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>110</v>
+      </c>
+      <c r="N3">
+        <v>120</v>
+      </c>
+      <c r="O3">
+        <v>130</v>
+      </c>
+      <c r="P3">
+        <v>140</v>
+      </c>
+      <c r="Q3">
+        <v>150</v>
+      </c>
+      <c r="R3">
+        <v>160</v>
+      </c>
+      <c r="S3">
+        <v>170</v>
+      </c>
+      <c r="T3">
+        <v>180</v>
+      </c>
+      <c r="U3">
+        <v>190</v>
+      </c>
+      <c r="V3">
+        <v>200</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y66" si="0">X3/COUNT($X$2:$X$129)</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z66" si="1">_xlfn.BETA.DIST(Y3,10+1,1+1,0)</f>
+        <v>1.1270281582986853E-16</v>
+      </c>
+      <c r="AA3" s="10">
+        <f t="shared" ref="AA3:AA66" si="2">AB4-AB3</f>
+        <v>1.5989216002938497E-19</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>7.8740444064013803E-23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
+      </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
+      <c r="K4">
+        <v>90</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>110</v>
+      </c>
+      <c r="N4">
+        <v>120</v>
+      </c>
+      <c r="O4">
+        <v>130</v>
+      </c>
+      <c r="P4">
+        <v>140</v>
+      </c>
+      <c r="Q4">
+        <v>150</v>
+      </c>
+      <c r="R4">
+        <v>160</v>
+      </c>
+      <c r="S4">
+        <v>170</v>
+      </c>
+      <c r="T4">
+        <v>180</v>
+      </c>
+      <c r="U4">
+        <v>190</v>
+      </c>
+      <c r="V4">
+        <v>200</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="1"/>
+        <v>6.4474328147650104E-15</v>
+      </c>
+      <c r="AA4" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3711929653564951E-17</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>1.5997090047344899E-19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>70</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>110</v>
+      </c>
+      <c r="N5">
+        <v>120</v>
+      </c>
+      <c r="O5">
+        <v>130</v>
+      </c>
+      <c r="P5">
+        <v>140</v>
+      </c>
+      <c r="Q5">
+        <v>150</v>
+      </c>
+      <c r="R5">
+        <v>160</v>
+      </c>
+      <c r="S5">
+        <v>170</v>
+      </c>
+      <c r="T5">
+        <v>180</v>
+      </c>
+      <c r="U5">
+        <v>190</v>
+      </c>
+      <c r="V5">
+        <v>200</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>1.1357581541915358E-13</v>
+      </c>
+      <c r="AA5" s="10">
+        <f t="shared" si="2"/>
+        <v>3.2185472366687263E-16</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>1.38719005540384E-17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>70</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>110</v>
+      </c>
+      <c r="N6">
+        <v>120</v>
+      </c>
+      <c r="O6">
+        <v>130</v>
+      </c>
+      <c r="P6">
+        <v>140</v>
+      </c>
+      <c r="Q6">
+        <v>150</v>
+      </c>
+      <c r="R6">
+        <v>160</v>
+      </c>
+      <c r="S6">
+        <v>170</v>
+      </c>
+      <c r="T6">
+        <v>180</v>
+      </c>
+      <c r="U6">
+        <v>190</v>
+      </c>
+      <c r="V6">
+        <v>200</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="1"/>
+        <v>1.0492269082352286E-12</v>
+      </c>
+      <c r="AA6" s="10">
+        <f t="shared" si="2"/>
+        <v>3.7142602138256493E-15</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>3.3572662422091101E-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7">
+        <v>70</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>110</v>
+      </c>
+      <c r="N7">
+        <v>120</v>
+      </c>
+      <c r="O7">
+        <v>130</v>
+      </c>
+      <c r="P7">
+        <v>140</v>
+      </c>
+      <c r="Q7">
+        <v>150</v>
+      </c>
+      <c r="R7">
+        <v>160</v>
+      </c>
+      <c r="S7">
+        <v>170</v>
+      </c>
+      <c r="T7">
+        <v>180</v>
+      </c>
+      <c r="U7">
+        <v>190</v>
+      </c>
+      <c r="V7">
+        <v>200</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>6.4437190934636857E-12</v>
+      </c>
+      <c r="AA7" s="10">
+        <f t="shared" si="2"/>
+        <v>2.7354881535164737E-14</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>4.0499868380465602E-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>70</v>
+      </c>
+      <c r="J8">
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <v>90</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>110</v>
+      </c>
+      <c r="N8">
+        <v>120</v>
+      </c>
+      <c r="O8">
+        <v>130</v>
+      </c>
+      <c r="P8">
+        <v>140</v>
+      </c>
+      <c r="Q8">
+        <v>150</v>
+      </c>
+      <c r="R8">
+        <v>160</v>
+      </c>
+      <c r="S8">
+        <v>170</v>
+      </c>
+      <c r="T8">
+        <v>180</v>
+      </c>
+      <c r="U8">
+        <v>190</v>
+      </c>
+      <c r="V8">
+        <v>200</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="1"/>
+        <v>2.9855890932770082E-11</v>
+      </c>
+      <c r="AA8" s="10">
+        <f t="shared" si="2"/>
+        <v>1.477693102974127E-13</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>3.1404868373211298E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>70</v>
+      </c>
+      <c r="J9">
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <v>90</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>110</v>
+      </c>
+      <c r="N9">
+        <v>120</v>
+      </c>
+      <c r="O9">
+        <v>130</v>
+      </c>
+      <c r="P9">
+        <v>140</v>
+      </c>
+      <c r="Q9">
+        <v>150</v>
+      </c>
+      <c r="R9">
+        <v>160</v>
+      </c>
+      <c r="S9">
+        <v>170</v>
+      </c>
+      <c r="T9">
+        <v>180</v>
+      </c>
+      <c r="U9">
+        <v>190</v>
+      </c>
+      <c r="V9">
+        <v>200</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="1"/>
+        <v>1.125499693444004E-10</v>
+      </c>
+      <c r="AA9" s="10">
+        <f t="shared" si="2"/>
+        <v>6.3620297054050398E-13</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>1.7917417867062401E-13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>70</v>
+      </c>
+      <c r="J10">
+        <v>80</v>
+      </c>
+      <c r="K10">
+        <v>90</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>110</v>
+      </c>
+      <c r="N10">
+        <v>120</v>
+      </c>
+      <c r="O10">
+        <v>130</v>
+      </c>
+      <c r="P10">
+        <v>140</v>
+      </c>
+      <c r="Q10">
+        <v>150</v>
+      </c>
+      <c r="R10">
+        <v>160</v>
+      </c>
+      <c r="S10">
+        <v>170</v>
+      </c>
+      <c r="T10">
+        <v>180</v>
+      </c>
+      <c r="U10">
+        <v>190</v>
+      </c>
+      <c r="V10">
+        <v>200</v>
+      </c>
+      <c r="X10">
+        <v>9</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>3.6244016618566337E-10</v>
+      </c>
+      <c r="AA10" s="10">
+        <f t="shared" si="2"/>
+        <v>2.3032344681463222E-12</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>8.1537714921112796E-13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>70</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>90</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>110</v>
+      </c>
+      <c r="N11">
+        <v>120</v>
+      </c>
+      <c r="O11">
+        <v>130</v>
+      </c>
+      <c r="P11">
+        <v>140</v>
+      </c>
+      <c r="Q11">
+        <v>150</v>
+      </c>
+      <c r="R11">
+        <v>160</v>
+      </c>
+      <c r="S11">
+        <v>170</v>
+      </c>
+      <c r="T11">
+        <v>180</v>
+      </c>
+      <c r="U11">
+        <v>190</v>
+      </c>
+      <c r="V11">
+        <v>200</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="1"/>
+        <v>1.0307332176900742E-9</v>
+      </c>
+      <c r="AA11" s="10">
+        <f t="shared" si="2"/>
+        <v>7.27276071590555E-12</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>3.11861161735745E-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>60</v>
+      </c>
+      <c r="I12">
+        <v>70</v>
+      </c>
+      <c r="J12">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>110</v>
+      </c>
+      <c r="N12">
+        <v>120</v>
+      </c>
+      <c r="O12">
+        <v>130</v>
+      </c>
+      <c r="P12">
+        <v>140</v>
+      </c>
+      <c r="Q12">
+        <v>150</v>
+      </c>
+      <c r="R12">
+        <v>160</v>
+      </c>
+      <c r="S12">
+        <v>170</v>
+      </c>
+      <c r="T12">
+        <v>180</v>
+      </c>
+      <c r="U12">
+        <v>190</v>
+      </c>
+      <c r="V12">
+        <v>200</v>
+      </c>
+      <c r="X12">
+        <v>11</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>8.59375E-2</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="1"/>
+        <v>2.6508001006416511E-9</v>
+      </c>
+      <c r="AA12" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0559425139538802E-11</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>1.0391372333263E-11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="I13">
+        <v>70</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>110</v>
+      </c>
+      <c r="N13">
+        <v>120</v>
+      </c>
+      <c r="O13">
+        <v>130</v>
+      </c>
+      <c r="P13">
+        <v>140</v>
+      </c>
+      <c r="Q13">
+        <v>150</v>
+      </c>
+      <c r="R13">
+        <v>160</v>
+      </c>
+      <c r="S13">
+        <v>170</v>
+      </c>
+      <c r="T13">
+        <v>180</v>
+      </c>
+      <c r="U13">
+        <v>190</v>
+      </c>
+      <c r="V13">
+        <v>200</v>
+      </c>
+      <c r="X13">
+        <v>12</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="1"/>
+        <v>6.2738584327703721E-9</v>
+      </c>
+      <c r="AA13" s="10">
+        <f t="shared" si="2"/>
+        <v>5.3044452422083593E-11</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>3.0950797472801803E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>130</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>70</v>
+      </c>
+      <c r="J14">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>110</v>
+      </c>
+      <c r="N14">
+        <v>120</v>
+      </c>
+      <c r="O14">
+        <v>130</v>
+      </c>
+      <c r="P14">
+        <v>140</v>
+      </c>
+      <c r="Q14">
+        <v>150</v>
+      </c>
+      <c r="R14">
+        <v>160</v>
+      </c>
+      <c r="S14">
+        <v>170</v>
+      </c>
+      <c r="T14">
+        <v>180</v>
+      </c>
+      <c r="U14">
+        <v>190</v>
+      </c>
+      <c r="V14">
+        <v>200</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0.1015625</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="1"/>
+        <v>1.3848273383290998E-8</v>
+      </c>
+      <c r="AA14" s="10">
+        <f t="shared" si="2"/>
+        <v>1.267476681170056E-10</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>8.3995249894885396E-11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>70</v>
+      </c>
+      <c r="J15">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>110</v>
+      </c>
+      <c r="N15">
+        <v>120</v>
+      </c>
+      <c r="O15">
+        <v>130</v>
+      </c>
+      <c r="P15">
+        <v>140</v>
+      </c>
+      <c r="Q15">
+        <v>150</v>
+      </c>
+      <c r="R15">
+        <v>160</v>
+      </c>
+      <c r="S15">
+        <v>170</v>
+      </c>
+      <c r="T15">
+        <v>180</v>
+      </c>
+      <c r="U15">
+        <v>190</v>
+      </c>
+      <c r="V15">
+        <v>200</v>
+      </c>
+      <c r="X15">
+        <v>14</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0.109375</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>2.8803779206015324E-8</v>
+      </c>
+      <c r="AA15" s="10">
+        <f t="shared" si="2"/>
+        <v>2.8369365476790695E-10</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>2.1074291801189101E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>70</v>
+      </c>
+      <c r="J16">
+        <v>80</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>110</v>
+      </c>
+      <c r="N16">
+        <v>120</v>
+      </c>
+      <c r="O16">
+        <v>130</v>
+      </c>
+      <c r="P16">
+        <v>140</v>
+      </c>
+      <c r="Q16">
+        <v>150</v>
+      </c>
+      <c r="R16">
+        <v>160</v>
+      </c>
+      <c r="S16">
+        <v>170</v>
+      </c>
+      <c r="T16">
+        <v>180</v>
+      </c>
+      <c r="U16">
+        <v>190</v>
+      </c>
+      <c r="V16">
+        <v>200</v>
+      </c>
+      <c r="X16">
+        <v>15</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>0.1171875</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="1"/>
+        <v>5.6918742817847056E-8</v>
+      </c>
+      <c r="AA16" s="10">
+        <f t="shared" si="2"/>
+        <v>6.0018309448918198E-10</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>4.9443657277979796E-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>160</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17">
+        <v>70</v>
+      </c>
+      <c r="J17">
+        <v>80</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>110</v>
+      </c>
+      <c r="N17">
+        <v>120</v>
+      </c>
+      <c r="O17">
+        <v>130</v>
+      </c>
+      <c r="P17">
+        <v>140</v>
+      </c>
+      <c r="Q17">
+        <v>150</v>
+      </c>
+      <c r="R17">
+        <v>160</v>
+      </c>
+      <c r="S17">
+        <v>170</v>
+      </c>
+      <c r="T17">
+        <v>180</v>
+      </c>
+      <c r="U17">
+        <v>190</v>
+      </c>
+      <c r="V17">
+        <v>200</v>
+      </c>
+      <c r="X17">
+        <v>16</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="1"/>
+        <v>1.0756775736808795E-7</v>
+      </c>
+      <c r="AA17" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2089217492618E-9</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>1.0946196672689799E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>170</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>70</v>
+      </c>
+      <c r="J18">
+        <v>80</v>
+      </c>
+      <c r="K18">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>110</v>
+      </c>
+      <c r="N18">
+        <v>120</v>
+      </c>
+      <c r="O18">
+        <v>130</v>
+      </c>
+      <c r="P18">
+        <v>140</v>
+      </c>
+      <c r="Q18">
+        <v>150</v>
+      </c>
+      <c r="R18">
+        <v>160</v>
+      </c>
+      <c r="S18">
+        <v>170</v>
+      </c>
+      <c r="T18">
+        <v>180</v>
+      </c>
+      <c r="U18">
+        <v>190</v>
+      </c>
+      <c r="V18">
+        <v>200</v>
+      </c>
+      <c r="X18">
+        <v>17</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>0.1328125</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="1"/>
+        <v>1.9546835479976599E-7</v>
+      </c>
+      <c r="AA18" s="10">
+        <f t="shared" si="2"/>
+        <v>2.3322441045648598E-9</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>2.3035414165307799E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>180</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+      <c r="I19">
+        <v>70</v>
+      </c>
+      <c r="J19">
+        <v>80</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>110</v>
+      </c>
+      <c r="N19">
+        <v>120</v>
+      </c>
+      <c r="O19">
+        <v>130</v>
+      </c>
+      <c r="P19">
+        <v>140</v>
+      </c>
+      <c r="Q19">
+        <v>150</v>
+      </c>
+      <c r="R19">
+        <v>160</v>
+      </c>
+      <c r="S19">
+        <v>170</v>
+      </c>
+      <c r="T19">
+        <v>180</v>
+      </c>
+      <c r="U19">
+        <v>190</v>
+      </c>
+      <c r="V19">
+        <v>200</v>
+      </c>
+      <c r="X19">
+        <v>18</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="0"/>
+        <v>0.140625</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>3.4306941444666335E-7</v>
+      </c>
+      <c r="AA19" s="10">
+        <f t="shared" si="2"/>
+        <v>4.33061049250825E-9</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>4.6357855210956397E-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>190</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>60</v>
+      </c>
+      <c r="I20">
+        <v>70</v>
+      </c>
+      <c r="J20">
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>110</v>
+      </c>
+      <c r="N20">
+        <v>120</v>
+      </c>
+      <c r="O20">
+        <v>130</v>
+      </c>
+      <c r="P20">
+        <v>140</v>
+      </c>
+      <c r="Q20">
+        <v>150</v>
+      </c>
+      <c r="R20">
+        <v>160</v>
+      </c>
+      <c r="S20">
+        <v>170</v>
+      </c>
+      <c r="T20">
+        <v>180</v>
+      </c>
+      <c r="U20">
+        <v>190</v>
+      </c>
+      <c r="V20">
+        <v>200</v>
+      </c>
+      <c r="X20">
+        <v>19</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="1"/>
+        <v>5.8374983732491195E-7</v>
+      </c>
+      <c r="AA20" s="10">
+        <f t="shared" si="2"/>
+        <v>7.771668414660109E-9</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>8.9663960136038896E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>80</v>
+      </c>
+      <c r="K21">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>110</v>
+      </c>
+      <c r="N21">
+        <v>120</v>
+      </c>
+      <c r="O21">
+        <v>130</v>
+      </c>
+      <c r="P21">
+        <v>140</v>
+      </c>
+      <c r="Q21">
+        <v>150</v>
+      </c>
+      <c r="R21">
+        <v>160</v>
+      </c>
+      <c r="S21">
+        <v>170</v>
+      </c>
+      <c r="T21">
+        <v>180</v>
+      </c>
+      <c r="U21">
+        <v>190</v>
+      </c>
+      <c r="V21">
+        <v>200</v>
+      </c>
+      <c r="X21">
+        <v>20</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="1"/>
+        <v>9.6602413568458382E-7</v>
+      </c>
+      <c r="AA21" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3526462235255199E-8</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>1.6738064428263999E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X22">
+        <v>21</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>0.1640625</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="1"/>
+        <v>1.5589816024358514E-6</v>
+      </c>
+      <c r="AA22" s="10">
+        <f t="shared" si="2"/>
+        <v>2.2900860062910205E-8</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>3.0264526663519197E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X23">
+        <v>22</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="0"/>
+        <v>0.171875</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="1"/>
+        <v>2.4592174882397247E-6</v>
+      </c>
+      <c r="AA23" s="10">
+        <f t="shared" si="2"/>
+        <v>3.7811950033633493E-8</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>5.3165386726429402E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X24">
+        <v>23</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>0.1796875</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="1"/>
+        <v>3.7995479034715526E-6</v>
+      </c>
+      <c r="AA24" s="10">
+        <f t="shared" si="2"/>
+        <v>6.1021045482657113E-8</v>
+      </c>
+      <c r="AB24" s="10">
+        <v>9.0977336760062896E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X25">
+        <v>24</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="1"/>
+        <v>5.759834721175127E-6</v>
+      </c>
+      <c r="AA25" s="10">
+        <f t="shared" si="2"/>
+        <v>9.6437032046266993E-8</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>1.5199838224272001E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X26">
+        <v>25</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>0.1953125</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="1"/>
+        <v>8.5802822939079057E-6</v>
+      </c>
+      <c r="AA26" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4950608891638897E-7</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>2.48435414288987E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X27">
+        <v>26</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>0.203125</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="1"/>
+        <v>1.2577603985547642E-5</v>
+      </c>
+      <c r="AA27" s="10">
+        <f t="shared" si="2"/>
+        <v>2.2770631726429207E-7</v>
+      </c>
+      <c r="AB27" s="10">
+        <v>3.9794150320537598E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X28">
+        <v>27</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>0.2109375</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="1"/>
+        <v>1.816449299733459E-5</v>
+      </c>
+      <c r="AA28" s="10">
+        <f t="shared" si="2"/>
+        <v>3.4116850356083587E-7</v>
+      </c>
+      <c r="AB28" s="10">
+        <v>6.2564782046966804E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X29">
+        <v>28</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="1"/>
+        <v>2.5872868339438286E-5</v>
+      </c>
+      <c r="AA29" s="10">
+        <f t="shared" si="2"/>
+        <v>5.0344712246287615E-7</v>
+      </c>
+      <c r="AB29" s="10">
+        <v>9.6681632403050391E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X30">
+        <v>29</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>0.2265625</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="1"/>
+        <v>3.6381402634081033E-5</v>
+      </c>
+      <c r="AA30" s="10">
+        <f t="shared" si="2"/>
+        <v>7.324687271198301E-7</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>1.4702634464933801E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X31">
+        <v>30</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>0.234375</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="1"/>
+        <v>5.0547873267757378E-5</v>
+      </c>
+      <c r="AA31" s="10">
+        <f t="shared" si="2"/>
+        <v>1.05168806357926E-6</v>
+      </c>
+      <c r="AB31" s="10">
+        <v>2.2027321736132102E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X32">
+        <v>31</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="0"/>
+        <v>0.2421875</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="1"/>
+        <v>6.9446911737545825E-5</v>
+      </c>
+      <c r="AA32" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4914855549137295E-6</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>3.2544202371924702E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X33">
+        <v>32</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="1"/>
+        <v>9.4413757324218614E-5</v>
+      </c>
+      <c r="AA33" s="10">
+        <f t="shared" si="2"/>
+        <v>2.0908431990063299E-6</v>
+      </c>
+      <c r="AB33" s="10">
+        <v>4.7459057921061997E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X34">
+        <v>33</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="0"/>
+        <v>0.2578125</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="1"/>
+        <v>1.2709464990226445E-4</v>
+      </c>
+      <c r="AA34" s="10">
+        <f t="shared" si="2"/>
+        <v>2.8993393753426906E-6</v>
+      </c>
+      <c r="AB34" s="10">
+        <v>6.8367489911125297E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X35">
+        <v>34</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="0"/>
+        <v>0.265625</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="1"/>
+        <v>1.6950452215861526E-4</v>
+      </c>
+      <c r="AA35" s="10">
+        <f t="shared" si="2"/>
+        <v>3.9795065185600801E-6</v>
+      </c>
+      <c r="AB35" s="10">
+        <v>9.7360883664552203E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X36">
+        <v>35</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="0"/>
+        <v>0.2734375</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="1"/>
+        <v>2.2409267309752805E-4</v>
+      </c>
+      <c r="AA36" s="10">
+        <f t="shared" si="2"/>
+        <v>5.4095990416743992E-6</v>
+      </c>
+      <c r="AB36" s="10">
+        <v>1.37155948850153E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X37">
+        <v>36</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="0"/>
+        <v>0.28125</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="1"/>
+        <v>2.938171217835574E-4</v>
+      </c>
+      <c r="AA37" s="10">
+        <f t="shared" si="2"/>
+        <v>7.2868222251966987E-6</v>
+      </c>
+      <c r="AB37" s="10">
+        <v>1.91251939266897E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X38">
+        <v>37</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="0"/>
+        <v>0.2890625</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="1"/>
+        <v>3.8222835210779504E-4</v>
+      </c>
+      <c r="AA38" s="10">
+        <f t="shared" si="2"/>
+        <v>9.7310759684331015E-6</v>
+      </c>
+      <c r="AB38" s="10">
+        <v>2.6412016151886398E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X39">
+        <v>38</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="0"/>
+        <v>0.296875</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="1"/>
+        <v>4.9356316520976105E-4</v>
+      </c>
+      <c r="AA39" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2889270257789297E-5</v>
+      </c>
+      <c r="AB39" s="10">
+        <v>3.61430921203195E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X40">
+        <v>39</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="0"/>
+        <v>0.3046875</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="1"/>
+        <v>6.3284935526857031E-4</v>
+      </c>
+      <c r="AA40" s="10">
+        <f t="shared" si="2"/>
+        <v>1.69402718683306E-5</v>
+      </c>
+      <c r="AB40" s="10">
+        <v>4.9032362378108797E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X41">
+        <v>40</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="1"/>
+        <v>8.0602191587786246E-4</v>
+      </c>
+      <c r="AA41" s="10">
+        <f t="shared" si="2"/>
+        <v>2.2100544096046208E-5</v>
+      </c>
+      <c r="AB41" s="10">
+        <v>6.5972634246439397E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X42">
+        <v>41</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="0"/>
+        <v>0.3203125</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="1"/>
+        <v>1.0200514672897103E-3</v>
+      </c>
+      <c r="AA42" s="10">
+        <f t="shared" si="2"/>
+        <v>2.86305431284014E-5</v>
+      </c>
+      <c r="AB42" s="10">
+        <v>8.8073178342485604E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X43">
+        <v>42</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="0"/>
+        <v>0.328125</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="1"/>
+        <v>1.2830855685692598E-3</v>
+      </c>
+      <c r="AA43" s="10">
+        <f t="shared" si="2"/>
+        <v>3.6841935900912997E-5</v>
+      </c>
+      <c r="AB43">
+        <v>1.16703721470887E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X44">
+        <v>43</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="0"/>
+        <v>0.3359375</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="1"/>
+        <v>1.6046035422245858E-3</v>
+      </c>
+      <c r="AA44" s="10">
+        <f t="shared" si="2"/>
+        <v>4.7105704850557996E-5</v>
+      </c>
+      <c r="AB44">
+        <v>1.535456573718E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X45">
+        <v>44</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="0"/>
+        <v>0.34375</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="1"/>
+        <v>1.9955853912115846E-3</v>
+      </c>
+      <c r="AA45" s="10">
+        <f t="shared" si="2"/>
+        <v>5.9861204747178008E-5</v>
+      </c>
+      <c r="AB45">
+        <v>2.00651362222358E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X46">
+        <v>45</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="0"/>
+        <v>0.3515625</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="1"/>
+        <v>2.4686953283720057E-3</v>
+      </c>
+      <c r="AA46" s="10">
+        <f t="shared" si="2"/>
+        <v>7.5626235637501994E-5</v>
+      </c>
+      <c r="AB46">
+        <v>2.6051256696953601E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X47">
+        <v>46</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="0"/>
+        <v>0.359375</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="1"/>
+        <v>3.0384803653209533E-3</v>
+      </c>
+      <c r="AA47" s="10">
+        <f t="shared" si="2"/>
+        <v>9.5008193739800023E-5</v>
+      </c>
+      <c r="AB47">
+        <v>3.36138802607038E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X48">
+        <v>47</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="0"/>
+        <v>0.3671875</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="1"/>
+        <v>3.7215843204987898E-3</v>
+      </c>
+      <c r="AA48" s="10">
+        <f t="shared" si="2"/>
+        <v>1.1871635873851897E-4</v>
+      </c>
+      <c r="AB48">
+        <v>4.3114699634683802E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X49">
+        <v>48</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="1"/>
+        <v>4.536977503448723E-3</v>
+      </c>
+      <c r="AA49" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4757537119639604E-4</v>
+      </c>
+      <c r="AB49">
+        <v>5.49863355085357E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X50">
+        <v>49</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="0"/>
+        <v>0.3828125</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="1"/>
+        <v>5.5062022132457318E-3</v>
+      </c>
+      <c r="AA50" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8253994756607498E-4</v>
+      </c>
+      <c r="AB50">
+        <v>6.9743872628175304E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X51">
+        <v>50</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="0"/>
+        <v>0.390625</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="1"/>
+        <v>6.6536340522234299E-3</v>
+      </c>
+      <c r="AA51" s="10">
+        <f t="shared" si="2"/>
+        <v>2.2471087237472208E-4</v>
+      </c>
+      <c r="AB51">
+        <v>8.7997867384782802E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X52">
+        <v>51</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="0"/>
+        <v>0.3984375</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="1"/>
+        <v>8.0067589005224683E-3</v>
+      </c>
+      <c r="AA52" s="10">
+        <f t="shared" si="2"/>
+        <v>2.7535229739478998E-4</v>
+      </c>
+      <c r="AB52">
+        <v>1.1046895462225501E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X53">
+        <v>52</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="0"/>
+        <v>0.40625</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="1"/>
+        <v>9.5964652212868623E-3</v>
+      </c>
+      <c r="AA53" s="10">
+        <f t="shared" si="2"/>
+        <v>3.3591036581391001E-4</v>
+      </c>
+      <c r="AB53">
+        <v>1.3800418436173401E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X54">
+        <v>53</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="0"/>
+        <v>0.4140625</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="1"/>
+        <v>1.1457351169291724E-2</v>
+      </c>
+      <c r="AA54" s="10">
+        <f t="shared" si="2"/>
+        <v>4.0803316538013984E-4</v>
+      </c>
+      <c r="AB54">
+        <v>1.7159522094312501E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X55">
+        <v>54</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="0"/>
+        <v>0.421875</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="1"/>
+        <v>1.3628045756099244E-2</v>
+      </c>
+      <c r="AA55" s="10">
+        <f t="shared" si="2"/>
+        <v>4.9359199802007005E-4</v>
+      </c>
+      <c r="AB55">
+        <v>2.1239853748113899E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X56">
+        <v>55</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="0"/>
+        <v>0.4296875</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="1"/>
+        <v>1.6151543081166592E-2</v>
+      </c>
+      <c r="AA56" s="10">
+        <f t="shared" si="2"/>
+        <v>5.9470393429117982E-4</v>
+      </c>
+      <c r="AB56">
+        <v>2.61757737283146E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X57">
+        <v>56</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="1"/>
+        <v>1.9075548369301049E-2</v>
+      </c>
+      <c r="AA57" s="10">
+        <f t="shared" si="2"/>
+        <v>7.1375559901688031E-4</v>
+      </c>
+      <c r="AB57">
+        <v>3.2122813071226398E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X58">
+        <v>57</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="0"/>
+        <v>0.4453125</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="1"/>
+        <v>2.2452834259065281E-2</v>
+      </c>
+      <c r="AA58" s="10">
+        <f t="shared" si="2"/>
+        <v>8.5342810932942988E-4</v>
+      </c>
+      <c r="AB58">
+        <v>3.9260369061395201E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X59">
+        <v>58</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="0"/>
+        <v>0.453125</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="1"/>
+        <v>2.6341605462736638E-2</v>
+      </c>
+      <c r="AA59" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0167230578801301E-3</v>
+      </c>
+      <c r="AB59">
+        <v>4.77946501546895E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X60">
+        <v>59</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="0"/>
+        <v>0.4609375</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="1"/>
+        <v>3.0805869564742697E-2</v>
+      </c>
+      <c r="AA60" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2069894019226396E-3</v>
+      </c>
+      <c r="AB60">
+        <v>5.7961880733490801E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X61">
+        <v>60</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="0"/>
+        <v>0.46875</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="1"/>
+        <v>3.5915811340617151E-2</v>
+      </c>
+      <c r="AA61" s="10">
+        <f t="shared" si="2"/>
+        <v>1.4279510830881E-3</v>
+      </c>
+      <c r="AB61">
+        <v>7.0031774752717197E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X62">
+        <v>61</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="0"/>
+        <v>0.4765625</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="1"/>
+        <v>4.1748167560901925E-2</v>
+      </c>
+      <c r="AA62" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6837351627015801E-3</v>
+      </c>
+      <c r="AB62">
+        <v>8.4311285583598197E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X63">
+        <v>62</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="0"/>
+        <v>0.484375</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="1"/>
+        <v>4.8386598792477267E-2</v>
+      </c>
+      <c r="AA63" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9789002131837003E-3</v>
+      </c>
+      <c r="AB63">
+        <v>1.01148637210614E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X64">
+        <v>63</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="0"/>
+        <v>0.4921875</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="1"/>
+        <v>5.5922054221918135E-2</v>
+      </c>
+      <c r="AA64" s="10">
+        <f t="shared" si="2"/>
+        <v>2.3184646571904003E-3</v>
+      </c>
+      <c r="AB64">
+        <v>1.20937639342451E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X65">
+        <v>64</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="1"/>
+        <v>6.4453124999999986E-2</v>
+      </c>
+      <c r="AA65" s="10">
+        <f t="shared" si="2"/>
+        <v>2.7079346924218997E-3</v>
+      </c>
+      <c r="AB65">
+        <v>1.44122285914355E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X66">
+        <v>65</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="0"/>
+        <v>0.5078125</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="1"/>
+        <v>7.4086381041723395E-2</v>
+      </c>
+      <c r="AA66" s="10">
+        <f t="shared" si="2"/>
+        <v>3.1533313812311982E-3</v>
+      </c>
+      <c r="AB66">
+        <v>1.71201632838574E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X67">
+        <v>66</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" ref="Y67:Y129" si="3">X67/COUNT($X$2:$X$129)</f>
+        <v>0.515625</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" ref="Z67:Z129" si="4">_xlfn.BETA.DIST(Y67,10+1,1+1,0)</f>
+        <v>8.493668561047335E-2</v>
+      </c>
+      <c r="AA67" s="10">
+        <f t="shared" ref="AA67:AA129" si="5">AB68-AB67</f>
+        <v>3.6612164200640028E-3</v>
+      </c>
+      <c r="AB67">
+        <v>2.0273494665088598E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X68">
+        <v>67</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="3"/>
+        <v>0.5234375</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="4"/>
+        <v>9.7127481366421922E-2</v>
+      </c>
+      <c r="AA68" s="10">
+        <f t="shared" si="5"/>
+        <v>4.2387160341355E-3</v>
+      </c>
+      <c r="AB68">
+        <v>2.3934711085152601E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X69">
+        <v>68</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="3"/>
+        <v>0.53125</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="4"/>
+        <v>0.1107910408662266</v>
+      </c>
+      <c r="AA69" s="10">
+        <f t="shared" si="5"/>
+        <v>4.8935423674139958E-3</v>
+      </c>
+      <c r="AB69">
+        <v>2.8173427119288101E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X70">
+        <v>69</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="3"/>
+        <v>0.5390625</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="4"/>
+        <v>0.12606867376165176</v>
+      </c>
+      <c r="AA70" s="10">
+        <f t="shared" si="5"/>
+        <v>5.6340116567601059E-3</v>
+      </c>
+      <c r="AB70">
+        <v>3.3066969486702097E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X71">
+        <v>70</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="3"/>
+        <v>0.546875</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="4"/>
+        <v>0.14311088215707932</v>
+      </c>
+      <c r="AA71" s="10">
+        <f t="shared" si="5"/>
+        <v>6.4690583918338984E-3</v>
+      </c>
+      <c r="AB71">
+        <v>3.8700981143462203E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X72">
+        <v>71</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="3"/>
+        <v>0.5546875</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="4"/>
+        <v>0.16207745474808938</v>
+      </c>
+      <c r="AA72" s="10">
+        <f t="shared" si="5"/>
+        <v>7.408244569047602E-3</v>
+      </c>
+      <c r="AB72">
+        <v>4.5170039535296101E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X73">
+        <v>72</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="4"/>
+        <v>0.18313748947343808</v>
+      </c>
+      <c r="AA73" s="10">
+        <f t="shared" si="5"/>
+        <v>8.4617630483704992E-3</v>
+      </c>
+      <c r="AB73">
+        <v>5.2578284104343703E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X74">
+        <v>73</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="3"/>
+        <v>0.5703125</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="4"/>
+        <v>0.2064693334689055</v>
+      </c>
+      <c r="AA74" s="10">
+        <f t="shared" si="5"/>
+        <v>9.6404339162491914E-3</v>
+      </c>
+      <c r="AB74">
+        <v>6.1040047152714202E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X75">
+        <v>74</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="3"/>
+        <v>0.578125</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="4"/>
+        <v>0.23226042811156783</v>
+      </c>
+      <c r="AA75" s="10">
+        <f t="shared" si="5"/>
+        <v>1.0955692646389403E-2</v>
+      </c>
+      <c r="AB75">
+        <v>7.0680481068963394E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X76">
+        <v>75</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="3"/>
+        <v>0.5859375</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="4"/>
+        <v>0.26070704588511917</v>
+      </c>
+      <c r="AA76" s="10">
+        <f t="shared" si="5"/>
+        <v>1.2419568732938896E-2</v>
+      </c>
+      <c r="AB76">
+        <v>8.1636173715352797E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X77">
+        <v>76</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="3"/>
+        <v>0.59375</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="4"/>
+        <v>0.29201390467877048</v>
+      </c>
+      <c r="AA77" s="10">
+        <f t="shared" si="5"/>
+        <v>1.4044653348069314E-2</v>
+      </c>
+      <c r="AB77">
+        <v>9.4055742448291693E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X78">
+        <v>77</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="3"/>
+        <v>0.6015625</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="4"/>
+        <v>0.32639364395193826</v>
+      </c>
+      <c r="AA78" s="10">
+        <f t="shared" si="5"/>
+        <v>1.5844054448631989E-2</v>
+      </c>
+      <c r="AB78">
+        <v>0.10810039579636101</v>
+      </c>
+    </row>
+    <row r="79" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X79">
+        <v>78</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="3"/>
+        <v>0.609375</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="4"/>
+        <v>0.36406614595225695</v>
+      </c>
+      <c r="AA79" s="10">
+        <f t="shared" si="5"/>
+        <v>1.783133762521201E-2</v>
+      </c>
+      <c r="AB79">
+        <v>0.123944450244993</v>
+      </c>
+    </row>
+    <row r="80" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X80">
+        <v>79</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="3"/>
+        <v>0.6171875</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="4"/>
+        <v>0.40525768386319866</v>
+      </c>
+      <c r="AA80" s="10">
+        <f t="shared" si="5"/>
+        <v>2.002045085259499E-2</v>
+      </c>
+      <c r="AB80">
+        <v>0.14177578787020501</v>
+      </c>
+    </row>
+    <row r="81" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X81">
+        <v>80</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="4"/>
+        <v>0.45019987737759931</v>
+      </c>
+      <c r="AA81" s="10">
+        <f t="shared" si="5"/>
+        <v>2.2425631164537996E-2</v>
+      </c>
+      <c r="AB81">
+        <v>0.1617962387228</v>
+      </c>
+    </row>
+    <row r="82" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X82">
+        <v>81</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="3"/>
+        <v>0.6328125</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="4"/>
+        <v>0.49912843474239238</v>
+      </c>
+      <c r="AA82" s="10">
+        <f t="shared" si="5"/>
+        <v>2.5061291139791997E-2</v>
+      </c>
+      <c r="AB82">
+        <v>0.18422186988733799</v>
+      </c>
+    </row>
+    <row r="83" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X83">
+        <v>82</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="3"/>
+        <v>0.640625</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="4"/>
+        <v>0.55228165879557034</v>
+      </c>
+      <c r="AA83" s="10">
+        <f t="shared" si="5"/>
+        <v>2.7941882952393998E-2</v>
+      </c>
+      <c r="AB83">
+        <v>0.20928316102712999</v>
+      </c>
+    </row>
+    <row r="84" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X84">
+        <v>83</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="3"/>
+        <v>0.6484375</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="4"/>
+        <v>0.60989869291654253</v>
+      </c>
+      <c r="AA84" s="10">
+        <f t="shared" si="5"/>
+        <v>3.1081737610308025E-2</v>
+      </c>
+      <c r="AB84">
+        <v>0.23722504397952399</v>
+      </c>
+    </row>
+    <row r="85" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X85">
+        <v>84</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="3"/>
+        <v>0.65625</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="4"/>
+        <v>0.67221748113321511</v>
+      </c>
+      <c r="AA85" s="10">
+        <f t="shared" si="5"/>
+        <v>3.4494876885908965E-2</v>
+      </c>
+      <c r="AB85">
+        <v>0.26830678158983201</v>
+      </c>
+    </row>
+    <row r="86" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X86">
+        <v>85</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="3"/>
+        <v>0.6640625</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="4"/>
+        <v>0.73947241487101689</v>
+      </c>
+      <c r="AA86" s="10">
+        <f t="shared" si="5"/>
+        <v>3.8194795333795051E-2</v>
+      </c>
+      <c r="AB86">
+        <v>0.30280165847574098</v>
+      </c>
+    </row>
+    <row r="87" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X87">
+        <v>86</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="3"/>
+        <v>0.671875</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="4"/>
+        <v>0.81189163698817657</v>
+      </c>
+      <c r="AA87" s="10">
+        <f t="shared" si="5"/>
+        <v>4.2194209701402974E-2</v>
+      </c>
+      <c r="AB87">
+        <v>0.34099645380953603</v>
+      </c>
+    </row>
+    <row r="88" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X88">
+        <v>87</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="3"/>
+        <v>0.6796875</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="4"/>
+        <v>0.88969397181549326</v>
+      </c>
+      <c r="AA88" s="10">
+        <f t="shared" si="5"/>
+        <v>4.6504772972569997E-2</v>
+      </c>
+      <c r="AB88">
+        <v>0.383190663510939</v>
+      </c>
+    </row>
+    <row r="89" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X89">
+        <v>88</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="3"/>
+        <v>0.6875</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="4"/>
+        <v>0.973085447905078</v>
+      </c>
+      <c r="AA89" s="10">
+        <f t="shared" si="5"/>
+        <v>5.1136750251578988E-2</v>
+      </c>
+      <c r="AB89">
+        <v>0.429695436483509</v>
+      </c>
+    </row>
+    <row r="90" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X90">
+        <v>89</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="3"/>
+        <v>0.6953125</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="4"/>
+        <v>1.0622553780885324</v>
+      </c>
+      <c r="AA90" s="10">
+        <f t="shared" si="5"/>
+        <v>5.6098653705856982E-2</v>
+      </c>
+      <c r="AB90">
+        <v>0.48083218673508799</v>
+      </c>
+    </row>
+    <row r="91" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X91">
+        <v>90</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="3"/>
+        <v>0.703125</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="4"/>
+        <v>1.1573719592483334</v>
+      </c>
+      <c r="AA91" s="10">
+        <f t="shared" si="5"/>
+        <v>6.1396833851667054E-2</v>
+      </c>
+      <c r="AB91">
+        <v>0.53693084044094497</v>
+      </c>
+    </row>
+    <row r="92" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X92">
+        <v>91</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="3"/>
+        <v>0.7109375</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="4"/>
+        <v>1.2585773519140222</v>
+      </c>
+      <c r="AA92" s="10">
+        <f t="shared" si="5"/>
+        <v>6.7035024604850002E-2</v>
+      </c>
+      <c r="AB92">
+        <v>0.59832767429261202</v>
+      </c>
+    </row>
+    <row r="93" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X93">
+        <v>92</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="3"/>
+        <v>0.71875</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="4"/>
+        <v>1.3659821974047746</v>
+      </c>
+      <c r="AA93" s="10">
+        <f t="shared" si="5"/>
+        <v>7.3013839747100961E-2</v>
+      </c>
+      <c r="AB93">
+        <v>0.66536269889746202</v>
+      </c>
+    </row>
+    <row r="94" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X94">
+        <v>93</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="3"/>
+        <v>0.7265625</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="4"/>
+        <v>1.4796595277490938</v>
+      </c>
+      <c r="AA94" s="10">
+        <f t="shared" si="5"/>
+        <v>7.933021880172697E-2</v>
+      </c>
+      <c r="AB94">
+        <v>0.73837653864456299</v>
+      </c>
+    </row>
+    <row r="95" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X95">
+        <v>94</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="3"/>
+        <v>0.734375</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="4"/>
+        <v>1.5996380210183463</v>
+      </c>
+      <c r="AA95" s="10">
+        <f t="shared" si="5"/>
+        <v>8.5976820801010989E-2</v>
+      </c>
+      <c r="AB95">
+        <v>0.81770675744628996</v>
+      </c>
+    </row>
+    <row r="96" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X96">
+        <v>95</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="3"/>
+        <v>0.7421875</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="4"/>
+        <v>1.7258945520106539</v>
+      </c>
+      <c r="AA96" s="10">
+        <f t="shared" si="5"/>
+        <v>9.2941365097806039E-2</v>
+      </c>
+      <c r="AB96">
+        <v>0.90368357824730094</v>
+      </c>
+    </row>
+    <row r="97" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X97">
+        <v>96</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="4"/>
+        <v>1.8583459854125977</v>
+      </c>
+      <c r="AA97" s="10">
+        <f t="shared" si="5"/>
+        <v>0.10020591927279299</v>
+      </c>
+      <c r="AB97">
+        <v>0.99662494334510698</v>
+      </c>
+    </row>
+    <row r="98" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X98">
+        <v>97</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="3"/>
+        <v>0.7578125</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="4"/>
+        <v>1.9968401556455804</v>
+      </c>
+      <c r="AA98" s="10">
+        <f t="shared" si="5"/>
+        <v>0.10774613537427014</v>
+      </c>
+      <c r="AB98">
+        <v>1.0968308626179</v>
+      </c>
+    </row>
+    <row r="99" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X99">
+        <v>98</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="3"/>
+        <v>0.765625</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="4"/>
+        <v>2.1411459745684671</v>
+      </c>
+      <c r="AA99" s="10">
+        <f t="shared" si="5"/>
+        <v>0.11553043727136991</v>
+      </c>
+      <c r="AB99">
+        <v>1.2045769979921701</v>
+      </c>
+    </row>
+    <row r="100" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X100">
+        <v>99</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="3"/>
+        <v>0.7734375</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="4"/>
+        <v>2.2909426050556396</v>
+      </c>
+      <c r="AA100" s="10">
+        <f t="shared" si="5"/>
+        <v>0.12351916389577999</v>
+      </c>
+      <c r="AB100">
+        <v>1.32010743526354</v>
+      </c>
+    </row>
+    <row r="101" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X101">
+        <v>100</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="3"/>
+        <v>0.78125</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="4"/>
+        <v>2.4458076351967919</v>
+      </c>
+      <c r="AA101" s="10">
+        <f t="shared" si="5"/>
+        <v>0.13166367570455995</v>
+      </c>
+      <c r="AB101">
+        <v>1.44362659915932</v>
+      </c>
+    </row>
+    <row r="102" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X102">
+        <v>101</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="3"/>
+        <v>0.7890625</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="4"/>
+        <v>2.6052041844688172</v>
+      </c>
+      <c r="AA102" s="10">
+        <f t="shared" si="5"/>
+        <v>0.13990543496190999</v>
+      </c>
+      <c r="AB102">
+        <v>1.57529027486388</v>
+      </c>
+    </row>
+    <row r="103" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X103">
+        <v>102</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" si="3"/>
+        <v>0.796875</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="4"/>
+        <v>2.7684668697079298</v>
+      </c>
+      <c r="AA103" s="10">
+        <f t="shared" si="5"/>
+        <v>0.14817507459234003</v>
+      </c>
+      <c r="AB103">
+        <v>1.7151957098257899</v>
+      </c>
+    </row>
+    <row r="104" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X104">
+        <v>103</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="3"/>
+        <v>0.8046875</v>
+      </c>
+      <c r="Z104">
+        <f t="shared" si="4"/>
+        <v>2.9347865550588228</v>
+      </c>
+      <c r="AA104" s="10">
+        <f t="shared" si="5"/>
+        <v>0.65187267867248022</v>
+      </c>
+      <c r="AB104">
+        <v>1.86337078441813</v>
+      </c>
+    </row>
+    <row r="105" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X105">
+        <v>104</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="3"/>
+        <v>0.8125</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" si="4"/>
+        <v>3.1031938062940299</v>
+      </c>
+      <c r="AA105" s="10">
+        <f t="shared" si="5"/>
+        <v>0.64880016236771976</v>
+      </c>
+      <c r="AB105">
+        <v>2.5152434630906102</v>
+      </c>
+    </row>
+    <row r="106" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X106">
+        <v>105</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="3"/>
+        <v>0.8203125</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" si="4"/>
+        <v>3.2725409659777074</v>
+      </c>
+      <c r="AA106" s="10">
+        <f t="shared" si="5"/>
+        <v>0.64732804598060012</v>
+      </c>
+      <c r="AB106">
+        <v>3.16404362545833</v>
+      </c>
+    </row>
+    <row r="107" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X107">
+        <v>106</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" si="3"/>
+        <v>0.828125</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" si="4"/>
+        <v>3.4414827618907209</v>
+      </c>
+      <c r="AA107" s="10">
+        <f t="shared" si="5"/>
+        <v>0.64757587804198957</v>
+      </c>
+      <c r="AB107">
+        <v>3.8113716714389301</v>
+      </c>
+    </row>
+    <row r="108" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X108">
+        <v>107</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" si="3"/>
+        <v>0.8359375</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" si="4"/>
+        <v>3.6084553569349138</v>
+      </c>
+      <c r="AA108" s="10">
+        <f t="shared" si="5"/>
+        <v>0.64965403378319042</v>
+      </c>
+      <c r="AB108">
+        <v>4.4589475494809196</v>
+      </c>
+    </row>
+    <row r="109" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X109">
+        <v>108</v>
+      </c>
+      <c r="Y109">
+        <f t="shared" si="3"/>
+        <v>0.84375</v>
+      </c>
+      <c r="Z109">
+        <f t="shared" si="4"/>
+        <v>3.7716537443907119</v>
+      </c>
+      <c r="AA109" s="10">
+        <f t="shared" si="5"/>
+        <v>0.65366092058213976</v>
+      </c>
+      <c r="AB109">
+        <v>5.1086015832641101</v>
+      </c>
+    </row>
+    <row r="110" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X110">
+        <v>109</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" si="3"/>
+        <v>0.8515625</v>
+      </c>
+      <c r="Z110">
+        <f t="shared" si="4"/>
+        <v>3.9290073879104916</v>
+      </c>
+      <c r="AA110" s="10">
+        <f t="shared" si="5"/>
+        <v>0.65967988542060052</v>
+      </c>
+      <c r="AB110">
+        <v>5.7622625038462498</v>
+      </c>
+    </row>
+    <row r="111" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X111">
+        <v>110</v>
+      </c>
+      <c r="Y111">
+        <f t="shared" si="3"/>
+        <v>0.859375</v>
+      </c>
+      <c r="Z111">
+        <f t="shared" si="4"/>
+        <v>4.0781540009871584</v>
+      </c>
+      <c r="AA111" s="10">
+        <f t="shared" si="5"/>
+        <v>0.66777577663676002</v>
+      </c>
+      <c r="AB111">
+        <v>6.4219423892668503</v>
+      </c>
+    </row>
+    <row r="112" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X112">
+        <v>111</v>
+      </c>
+      <c r="Y112">
+        <f t="shared" si="3"/>
+        <v>0.8671875</v>
+      </c>
+      <c r="Z112">
+        <f t="shared" si="4"/>
+        <v>4.2164113558398304</v>
+      </c>
+      <c r="AA112" s="10">
+        <f t="shared" si="5"/>
+        <v>0.67799120756766929</v>
+      </c>
+      <c r="AB112">
+        <v>7.0897181659036104</v>
+      </c>
+    </row>
+    <row r="113" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X113">
+        <v>112</v>
+      </c>
+      <c r="Y113">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+      <c r="Z113">
+        <f t="shared" si="4"/>
+        <v>4.3407470067031682</v>
+      </c>
+      <c r="AA113" s="10">
+        <f t="shared" si="5"/>
+        <v>0.69034239566263</v>
+      </c>
+      <c r="AB113">
+        <v>7.7677093734712797</v>
+      </c>
+    </row>
+    <row r="114" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X114">
+        <v>113</v>
+      </c>
+      <c r="Y114">
+        <f t="shared" si="3"/>
+        <v>0.8828125</v>
+      </c>
+      <c r="Z114">
+        <f t="shared" si="4"/>
+        <v>4.4477458073902598</v>
+      </c>
+      <c r="AA114" s="10">
+        <f t="shared" si="5"/>
+        <v>0.70481463415419121</v>
+      </c>
+      <c r="AB114">
+        <v>8.4580517691339097</v>
+      </c>
+    </row>
+    <row r="115" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X115">
+        <v>114</v>
+      </c>
+      <c r="Y115">
+        <f t="shared" si="3"/>
+        <v>0.890625</v>
+      </c>
+      <c r="Z115">
+        <f t="shared" si="4"/>
+        <v>4.5335750977177369</v>
+      </c>
+      <c r="AA115" s="10">
+        <f t="shared" si="5"/>
+        <v>0.72135733155974968</v>
+      </c>
+      <c r="AB115">
+        <v>9.1628664032881009</v>
+      </c>
+    </row>
+    <row r="116" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X116">
+        <v>115</v>
+      </c>
+      <c r="Y116">
+        <f t="shared" si="3"/>
+        <v>0.8984375</v>
+      </c>
+      <c r="Z116">
+        <f t="shared" si="4"/>
+        <v>4.5939474279325037</v>
+      </c>
+      <c r="AA116" s="10">
+        <f t="shared" si="5"/>
+        <v>0.73987859596914873</v>
+      </c>
+      <c r="AB116">
+        <v>9.8842237348478506</v>
+      </c>
+    </row>
+    <row r="117" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X117">
+        <v>116</v>
+      </c>
+      <c r="Y117">
+        <f t="shared" si="3"/>
+        <v>0.90625</v>
+      </c>
+      <c r="Z117">
+        <f t="shared" si="4"/>
+        <v>4.6240806846586819</v>
+      </c>
+      <c r="AA117" s="10">
+        <f t="shared" si="5"/>
+        <v>0.76023933230450069</v>
+      </c>
+      <c r="AB117">
+        <v>10.624102330816999</v>
+      </c>
+    </row>
+    <row r="118" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X118">
+        <v>117</v>
+      </c>
+      <c r="Y118">
+        <f t="shared" si="3"/>
+        <v>0.9140625</v>
+      </c>
+      <c r="Z118">
+        <f t="shared" si="4"/>
+        <v>4.6186554760875582</v>
+      </c>
+      <c r="AA118" s="10">
+        <f t="shared" si="5"/>
+        <v>0.78224681870950086</v>
+      </c>
+      <c r="AB118">
+        <v>11.3843416631215</v>
+      </c>
+    </row>
+    <row r="119" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X119">
+        <v>118</v>
+      </c>
+      <c r="Y119">
+        <f t="shared" si="3"/>
+        <v>0.921875</v>
+      </c>
+      <c r="Z119">
+        <f t="shared" si="4"/>
+        <v>4.5717696281589175</v>
+      </c>
+      <c r="AA119" s="10">
+        <f t="shared" si="5"/>
+        <v>0.80564772611749902</v>
+      </c>
+      <c r="AB119">
+        <v>12.166588481831001</v>
+      </c>
+    </row>
+    <row r="120" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X120">
+        <v>119</v>
+      </c>
+      <c r="Y120">
+        <f t="shared" si="3"/>
+        <v>0.9296875</v>
+      </c>
+      <c r="Z120">
+        <f t="shared" si="4"/>
+        <v>4.4768896373257441</v>
+      </c>
+      <c r="AA120" s="10">
+        <f t="shared" si="5"/>
+        <v>0.83012054284839998</v>
+      </c>
+      <c r="AB120">
+        <v>12.9722362079485</v>
+      </c>
+    </row>
+    <row r="121" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X121">
+        <v>120</v>
+      </c>
+      <c r="Y121">
+        <f t="shared" si="3"/>
+        <v>0.9375</v>
+      </c>
+      <c r="Z121">
+        <f t="shared" si="4"/>
+        <v>4.3267989191519973</v>
+      </c>
+      <c r="AA121" s="10">
+        <f t="shared" si="5"/>
+        <v>0.85526736335379994</v>
+      </c>
+      <c r="AB121">
+        <v>13.8023567507969</v>
+      </c>
+    </row>
+    <row r="122" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X122">
+        <v>121</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" si="3"/>
+        <v>0.9453125</v>
+      </c>
+      <c r="Z122">
+        <f t="shared" si="4"/>
+        <v>4.1135426854616455</v>
+      </c>
+      <c r="AA122" s="10">
+        <f t="shared" si="5"/>
+        <v>0.88060500138180053</v>
+      </c>
+      <c r="AB122">
+        <v>14.6576241141507</v>
+      </c>
+    </row>
+    <row r="123" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X123">
+        <v>122</v>
+      </c>
+      <c r="Y123">
+        <f t="shared" si="3"/>
+        <v>0.953125</v>
+      </c>
+      <c r="Z123">
+        <f t="shared" si="4"/>
+        <v>3.8283692760325612</v>
+      </c>
+      <c r="AA123" s="10">
+        <f t="shared" si="5"/>
+        <v>0.9055553736935007</v>
+      </c>
+      <c r="AB123">
+        <v>15.5382291155325</v>
+      </c>
+    </row>
+    <row r="124" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X124">
+        <v>123</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" si="3"/>
+        <v>0.9609375</v>
+      </c>
+      <c r="Z124">
+        <f t="shared" si="4"/>
+        <v>3.461667763907486</v>
+      </c>
+      <c r="AA124" s="10">
+        <f t="shared" si="5"/>
+        <v>0.92943511981239979</v>
+      </c>
+      <c r="AB124">
+        <v>16.443784489226001</v>
+      </c>
+    </row>
+    <row r="125" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X125">
+        <v>124</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" si="3"/>
+        <v>0.96875</v>
+      </c>
+      <c r="Z125">
+        <f t="shared" si="4"/>
+        <v>3.0029016462725302</v>
+      </c>
+      <c r="AA125" s="10">
+        <f t="shared" si="5"/>
+        <v>0.95144439571580008</v>
+      </c>
+      <c r="AB125">
+        <v>17.373219609038401</v>
+      </c>
+    </row>
+    <row r="126" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X126">
+        <v>125</v>
+      </c>
+      <c r="Y126">
+        <f t="shared" si="3"/>
+        <v>0.9765625</v>
+      </c>
+      <c r="Z126">
+        <f t="shared" si="4"/>
+        <v>2.4405384255275053</v>
+      </c>
+      <c r="AA126" s="10">
+        <f t="shared" si="5"/>
+        <v>0.97065479411719835</v>
+      </c>
+      <c r="AB126">
+        <v>18.324664004754201</v>
+      </c>
+    </row>
+    <row r="127" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X127">
+        <v>126</v>
+      </c>
+      <c r="Y127">
+        <f t="shared" si="3"/>
+        <v>0.984375</v>
+      </c>
+      <c r="Z127">
+        <f t="shared" si="4"/>
+        <v>1.7619748776382822</v>
+      </c>
+      <c r="AA127" s="10">
+        <f t="shared" si="5"/>
+        <v>0.98599633422380251</v>
+      </c>
+      <c r="AB127">
+        <v>19.295318798871399</v>
+      </c>
+    </row>
+    <row r="128" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X128">
+        <v>127</v>
+      </c>
+      <c r="Y128">
+        <f t="shared" si="3"/>
+        <v>0.9921875</v>
+      </c>
+      <c r="Z128">
+        <f t="shared" si="4"/>
+        <v>0.9534577971152427</v>
+      </c>
+      <c r="AA128" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99624346204929992</v>
+      </c>
+      <c r="AB128">
+        <v>20.281315133095202</v>
+      </c>
+    </row>
+    <row r="129" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X129">
+        <v>128</v>
+      </c>
+      <c r="Y129">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z129">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA129" s="10"/>
+      <c r="AB129">
+        <v>21.277558595144502</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>